--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/sf51ki_id_aau_dk/Documents/Dokumenter/Kaggle Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SF51KI\OneDrive - Aalborg Universitet\Dokumenter\Kaggle Project\kaggle-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="123">
   <si>
     <t>Full</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>CF</t>
-  </si>
-  <si>
-    <t>GB</t>
   </si>
   <si>
     <t>Lag X</t>
@@ -782,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q10"/>
+  <dimension ref="A3:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,49 +800,49 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -856,19 +853,19 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
       <c r="J4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -879,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -887,114 +884,97 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" t="s">
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-      <c r="N10" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1030,79 +1010,79 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,27 +1090,27 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1138,50 +1118,50 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -1189,42 +1169,42 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,289 +1212,289 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
         <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
         <v>86</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
         <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
         <v>92</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
         <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1522,16 +1502,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,16 +1519,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,50 +1536,50 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,16 +1587,16 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,16 +1604,16 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,16 +1621,16 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,16 +1638,16 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
         <v>24</v>
       </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,87 +1655,87 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
       <c r="D37" t="s">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
       <c r="F39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
         <v>107</v>
       </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,190 +1743,190 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" t="s">
-        <v>59</v>
-      </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
         <v>61</v>
       </c>
-      <c r="C50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>62</v>
-      </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1954,16 +1934,16 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,16 +1951,16 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1988,16 +1968,16 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,16 +1985,16 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
         <v>47</v>
       </c>
-      <c r="C55" t="s">
-        <v>48</v>
-      </c>
       <c r="D55" t="s">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2022,16 +2002,16 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,16 +2019,16 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2056,16 +2036,16 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2073,36 +2053,36 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,16 +2090,16 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2127,16 +2107,16 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2144,19 +2124,19 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
         <v>19</v>
       </c>
-      <c r="C63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" t="s">
-        <v>20</v>
-      </c>
       <c r="F63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,19 +2144,19 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
         <v>31</v>
-      </c>
-      <c r="F64" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,33 +2164,33 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2238,13 +2218,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2252,43 +2232,43 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2296,21 +2276,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2319,6 +2299,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CFAC39541BC0884988008E23BCB17235" ma:contentTypeVersion="10" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="afcf8bf3e4c307d1083d70ef0d579815">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8fe2c115-ee5e-4abc-863d-b44282071455" xmlns:ns4="7fe73e4e-19b4-4f1f-9a2b-d8e50d92a6c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e694b4b41272ad0fe95d374b5ec3c831" ns3:_="" ns4:_="">
     <xsd:import namespace="8fe2c115-ee5e-4abc-863d-b44282071455"/>
@@ -2521,15 +2510,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2537,6 +2517,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E51E6211-34D4-4659-8CEB-EA49273F5F14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08C6BC17-7312-4604-B509-C82970012448}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2555,27 +2543,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E51E6211-34D4-4659-8CEB-EA49273F5F14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{838DEC59-F73E-4164-9129-A641D7E0CE2C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7fe73e4e-19b4-4f1f-9a2b-d8e50d92a6c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="8fe2c115-ee5e-4abc-863d-b44282071455"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7fe73e4e-19b4-4f1f-9a2b-d8e50d92a6c3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>